--- a/pesantren/perbaikan rapot/khalid.xlsx
+++ b/pesantren/perbaikan rapot/khalid.xlsx
@@ -8,23 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\perbaikan rapot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696235D9-9421-47B3-A1C4-197C587AA831}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B413F4-BE6C-4282-9FA5-B93325F30AF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{FBABE9AF-663C-48BC-B2A5-05E25A948692}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="7" xr2:uid="{FBABE9AF-663C-48BC-B2A5-05E25A948692}"/>
   </bookViews>
   <sheets>
     <sheet name="juz 30 (4)" sheetId="16" r:id="rId1"/>
     <sheet name="juz 30 (5)" sheetId="17" r:id="rId2"/>
     <sheet name="juz 30 (6)" sheetId="18" r:id="rId3"/>
-    <sheet name="juz 30 (7)" sheetId="19" r:id="rId4"/>
-    <sheet name="juz 30 (8)" sheetId="20" r:id="rId5"/>
-    <sheet name="juz 30 (9)" sheetId="21" r:id="rId6"/>
+    <sheet name="juz 30 (7)" sheetId="22" r:id="rId4"/>
+    <sheet name="juz 30 (8)" sheetId="23" r:id="rId5"/>
+    <sheet name="juz 30 (9)" sheetId="24" r:id="rId6"/>
+    <sheet name="juz 30 (10)" sheetId="25" r:id="rId7"/>
+    <sheet name="juz 30 (11)" sheetId="26" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'juz 30 (10)'!$A$1:$C$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'juz 30 (11)'!$A$1:$C$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'juz 30 (4)'!$A$1:$E$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'juz 30 (5)'!$A$1:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'juz 30 (6)'!$A$1:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'juz 30 (7)'!$A$1:$C$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'juz 30 (7)'!$A$1:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'juz 30 (8)'!$A$1:$C$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'juz 30 (9)'!$A$1:$C$39</definedName>
   </definedNames>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="24">
   <si>
     <t>RAPORT TAHFIDZ AL-QURAN</t>
   </si>
@@ -89,31 +93,28 @@
     <t>I (Awwal)</t>
   </si>
   <si>
+    <t>Khalid Ghazy Murtadho</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>II (Tsani)</t>
+  </si>
+  <si>
+    <t>Mumtaz</t>
+  </si>
+  <si>
     <t>Jayyid</t>
   </si>
   <si>
     <t>Dhoif</t>
   </si>
   <si>
-    <t>Ayaturrahman Shinra Aufa</t>
-  </si>
-  <si>
     <t>Jayyid Jiddan</t>
   </si>
   <si>
-    <t>Mumtaz</t>
-  </si>
-  <si>
     <t>Maqbul</t>
-  </si>
-  <si>
-    <t>II (Tsani)</t>
-  </si>
-  <si>
-    <t>Khalid Ghazy Murtadho</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -434,22 +435,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="just"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Alhamdulillah Ananda Shinra memperoleh nilai jayyid jiddan untuk juz 30 ini yang menandakan bahwa proses murajaah yang begitu seringnya akan lebih mudah untuk memperoleh</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> kembali hafalan yang telah dimiliki. Lalu, untuk catatan tajwid pada juz ini adalah terkadang mengqalqalahkan huruf ra yang bukan termasuk huruf qalqalah, saktah pada ayat-ayat yang bukan saktah, huruf kha dibaca ha, tashil pada beberapa ayat sehingga huruf hamzah yang berada di tengah kedua kata menjadi tak nampak dan berubah menjadi alif.</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" sz="1200">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -575,22 +560,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="just"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Alhamdulillah anada Shinra memperoleh nilai mumtaz pada juz 1 ini yang menandakan bahwa manfaat dari murajaah yang intens memberikan hasil yang baik berupa mudahnya memperoleh kembali hafalan yang telah dilalui. Lalu, untuk catatan tajwid</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> dan makhroj pada juz ini adalah beberapa tempat qalqalah yang masih kurang terbaca qalqalahnya, mad yang terkadang dibaca pendek, dan huruf ra yang masih kurang dibaca tebal pada beberapa tempat yang seharusnya dibaca tebal.</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" sz="1200">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -716,22 +685,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="just"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Pada juz 2 ini, ananda Shinra memperoleh</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> nilai dhaif. Maka, tugas yang harus dilakukan oleh ananda adalah memperbanyak murajaah dan fokus dalam murajaah tersebut sehingga bisa mengulang-ngulang hafalan yang dimiliki sebanyak-banyaknya. Maka, setelah mengulang-ngulang berkali-kali itu, akan kuat hafalan yang dimiliki melekat pada ingatan dan mudah dipanggil kembali.</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" sz="1200">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -749,23 +702,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>779990</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>233891</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>132383</xdr:rowOff>
+      <xdr:rowOff>141908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E241277-68EC-403B-85CD-952F361A5B0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E04A82B-C852-4323-A75F-3399C39A5185}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -781,8 +734,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1690157" y="0"/>
-          <a:ext cx="670984" cy="703883"/>
+          <a:off x="2238375" y="9525"/>
+          <a:ext cx="666750" cy="703883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -799,13 +752,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>1666875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -813,7 +766,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F6D359-E7DE-4533-89F6-60032520676C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8332D710-DCB4-4956-B0F6-4EF822B9095B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -821,7 +774,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10259483"/>
+          <a:off x="0" y="9459383"/>
           <a:ext cx="4962525" cy="1656292"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -858,22 +811,22 @@
         <a:p>
           <a:pPr algn="just"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1400">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Alhamdulillah ananda Ayaturrahman Shinra</a:t>
+            <a:t>Alhamdulillah ananda Khalid bisa menyelesaikan ujian dengan baik; yang menjadi catatan</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
+            <a:rPr lang="en-US" sz="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> Aufa dapat menyelesaikan ujin juz 30 dengan cukup baik, per halaman rata-rata masih belum lancar. Dalam hukum tajwid dan makhroj sudah cukup baik, hanya sesekali keliru bacaan harokat. Secara umum ananda lulus juz 30 dengan predikat jayyid jiddan.</a:t>
+            <a:t> adalah hukum bacaan Mad Thobii yang perlu diseragamkan lagi temponya dan hukum Mad Wajib.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
+          <a:endParaRPr lang="en-US" sz="1200">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -891,13 +844,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>779990</xdr:colOff>
+      <xdr:colOff>684742</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>233891</xdr:colOff>
+      <xdr:colOff>159810</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>132383</xdr:rowOff>
     </xdr:to>
@@ -906,7 +859,7 @@
         <xdr:cNvPr id="2" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E1F224-BE90-4606-B688-738A535F3230}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8990A14-2CF3-4430-AAB5-6BC8B0E9A000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -922,8 +875,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1694390" y="0"/>
-          <a:ext cx="673101" cy="703883"/>
+          <a:off x="1594909" y="0"/>
+          <a:ext cx="670984" cy="703883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -954,7 +907,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68413844-19D1-430D-889D-3B3309E4923F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC37C81A-18E1-44D0-9128-5844418ADCD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,8 +915,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10068983"/>
-          <a:ext cx="4019550" cy="1656292"/>
+          <a:off x="0" y="9459383"/>
+          <a:ext cx="4962525" cy="1656292"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -999,22 +952,22 @@
         <a:p>
           <a:pPr algn="just"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1400">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Alhamdulillah</a:t>
+            <a:t>Alhamdulillah ananda Khalid mendapatkan nilai mumtaz pada juz 1. Untuk tajwid dan makhrojnya juga lancar. Semoga tetap dipertahankan kelancaran ini dan tetap</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
+            <a:rPr lang="en-US" sz="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> ananda Ayaturrahman Shinra Aufa dapat menyelesaikan ujian juz 1 dengan cukup baik, per halaman rata-rata masih belum lancar. Dalam hukum tajwid dan makhroj, sudah cukup baik, hanya sesekali keliru bacaan harokat. Secara umum, ananda lulus juz 1 dengan predikat mumtaz.</a:t>
+            <a:t> murajaah.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
+          <a:endParaRPr lang="en-US" sz="1200">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -1032,13 +985,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>779990</xdr:colOff>
+      <xdr:colOff>684742</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>233891</xdr:colOff>
+      <xdr:colOff>159810</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>132383</xdr:rowOff>
     </xdr:to>
@@ -1047,7 +1000,7 @@
         <xdr:cNvPr id="2" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADAB02C0-93A4-4C2A-892A-DDDCF2646C7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB2E03D-383C-4222-9BEE-F4C6BD2BC439}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1063,8 +1016,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1694390" y="0"/>
-          <a:ext cx="673101" cy="703883"/>
+          <a:off x="1599142" y="0"/>
+          <a:ext cx="675218" cy="703883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1095,7 +1048,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{420624AF-3282-4D1C-8DE2-1959DF887D5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB45419B-1D1A-4879-A990-77E16A0F708B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1104,7 +1057,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9268883"/>
-          <a:ext cx="4019550" cy="1656292"/>
+          <a:ext cx="3914775" cy="1656292"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1140,26 +1093,295 @@
         <a:p>
           <a:pPr algn="just"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1400">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Ananda Shinra belum dapat menyelesaikan hafalan di</a:t>
+            <a:t>Alhamdulillah ananda Khalid mendapatkan nilai jayyid jiddan pada juz 2 ini. Terdapat beberapa ayat yang tersendat di setengah juz akhir. Tapi, tidak terlalu banyak tersendatnya sehingga tetap mendapatkan nilai yang baik. Semoga senantiasa termotivasi untuk</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
+            <a:rPr lang="en-US" sz="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> juz 3, hanya mampu menghafal 2 halaman dengan baik.</a:t>
+            <a:t> memperbanyak murajaah.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
+          <a:endParaRPr lang="en-US" sz="1200">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>684742</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>159810</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>132383</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B226552D-AC7B-4656-905F-A3460926D18C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1599142" y="0"/>
+          <a:ext cx="675218" cy="703883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1666875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DFA73FC-9ECC-4AE3-84CC-B8AFD082B6DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9268883"/>
+          <a:ext cx="3914775" cy="1656292"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="just"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alhamdulillah</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ananda Khalid mendapatkan nilai mumtaz pada juz 3 ini. Walaupun setengah akhir dari juz 3 ini adalah ayat-ayat yang susah, tapi ananda Khalid bisa melewatinya dengan lancar.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>684742</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>159810</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>132383</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA828557-7848-41EE-96F7-3915CEA3F612}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1599142" y="0"/>
+          <a:ext cx="675218" cy="703883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1666875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77ACD996-4C68-43EA-8486-AB4489F63E8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9268883"/>
+          <a:ext cx="3914775" cy="1656292"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="just"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alhamdulillah ananda Khalid mendapatkan nilai maqbul di juz 4 ini. Terdapat beberapa ketidaklancaran pada setengah juz akhir, terutama saat mendekati seperempat terakhir. Semoga bisa memotivasi ananda Khalid untuk terus memperbanyak murajaah.</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1467,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73096237-9E2B-48B4-981A-1C9C60CBCBE2}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1741,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -1563,7 +1785,7 @@
         <v>7</v>
       </c>
       <c r="M15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1612,14 +1834,16 @@
         <f t="shared" si="0"/>
         <v>584</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6">
+        <v>3</v>
+      </c>
       <c r="D18" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E18" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1631,14 +1855,16 @@
         <f t="shared" si="0"/>
         <v>585</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
       <c r="D19" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E19" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1650,14 +1876,16 @@
         <f t="shared" si="0"/>
         <v>586</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
       <c r="D20" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1669,14 +1897,16 @@
         <f t="shared" si="0"/>
         <v>587</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
       <c r="D21" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1688,14 +1918,16 @@
         <f t="shared" si="0"/>
         <v>588</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
       <c r="D22" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1707,14 +1939,16 @@
         <f t="shared" si="0"/>
         <v>589</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
       <c r="D23" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1726,14 +1960,16 @@
         <f t="shared" si="0"/>
         <v>590</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
       <c r="D24" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2010,7 +2246,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="9">
         <f>AVERAGE(D16:D38)</f>
-        <v>100</v>
+        <v>89.565217391304344</v>
       </c>
       <c r="E39" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2048,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46D27F-8154-4EC8-AB6A-1B397C311D9E}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,7 +2336,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -2228,14 +2464,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
       <c r="D20" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2266,14 +2504,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
       <c r="D22" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2363,16 +2603,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C27" s="6">
-        <v>4</v>
-      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="8">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Mumtaz</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2403,14 +2641,16 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="6">
+        <v>4</v>
+      </c>
       <c r="D29" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Mumtaz</v>
+        <v>Dhoif</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2499,15 +2739,15 @@
         <v>20</v>
       </c>
       <c r="C34" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D34" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2520,15 +2760,15 @@
         <v>21</v>
       </c>
       <c r="C35" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D35" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2539,7 +2779,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="9">
         <f>AVERAGE(D16:D35)</f>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E36" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2578,7 +2818,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2629,7 +2869,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -2682,15 +2922,15 @@
         <v>22</v>
       </c>
       <c r="C16" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" ref="D16:D35" si="1">(5-C16)/5*100</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E16" s="6" t="str">
         <f t="shared" ref="E16:E36" si="2">IF(D16&lt;21,"Dhoif",IF(D16&lt;41,"Maqbul",IF(D16&lt;61,"Jayyid",IF(D16&lt;81,"Jayyid Jiddan","Mumtaz"))))</f>
-        <v>Dhoif</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2702,16 +2942,14 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C17" s="6">
-        <v>5</v>
-      </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Mumtaz</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2724,15 +2962,15 @@
         <v>24</v>
       </c>
       <c r="C18" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E18" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2745,15 +2983,15 @@
         <v>25</v>
       </c>
       <c r="C19" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E19" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2765,16 +3003,14 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C20" s="6">
-        <v>5</v>
-      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Mumtaz</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2786,16 +3022,14 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C21" s="6">
-        <v>5</v>
-      </c>
+      <c r="C21" s="6"/>
       <c r="D21" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Mumtaz</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2807,16 +3041,14 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C22" s="6">
-        <v>5</v>
-      </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Mumtaz</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2829,15 +3061,15 @@
         <v>29</v>
       </c>
       <c r="C23" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2850,15 +3082,15 @@
         <v>30</v>
       </c>
       <c r="C24" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2871,15 +3103,15 @@
         <v>31</v>
       </c>
       <c r="C25" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2892,15 +3124,15 @@
         <v>32</v>
       </c>
       <c r="C26" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2912,16 +3144,14 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C27" s="6">
-        <v>5</v>
-      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Mumtaz</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2934,15 +3164,15 @@
         <v>34</v>
       </c>
       <c r="C28" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D28" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2955,15 +3185,15 @@
         <v>35</v>
       </c>
       <c r="C29" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D29" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2976,15 +3206,15 @@
         <v>36</v>
       </c>
       <c r="C30" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2997,15 +3227,15 @@
         <v>37</v>
       </c>
       <c r="C31" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3018,15 +3248,15 @@
         <v>38</v>
       </c>
       <c r="C32" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3039,15 +3269,15 @@
         <v>39</v>
       </c>
       <c r="C33" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3060,15 +3290,15 @@
         <v>40</v>
       </c>
       <c r="C34" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3081,15 +3311,15 @@
         <v>41</v>
       </c>
       <c r="C35" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3100,11 +3330,11 @@
       <c r="C36" s="4"/>
       <c r="D36" s="9">
         <f>AVERAGE(D16:D35)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Dhoif</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3135,55 +3365,65 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE75816-163C-40C3-8BB5-5FEBF0A7AC39}">
-  <dimension ref="A1:C42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4E40CB-6D35-4541-816C-3717D5A45624}">
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
-    </row>
-    <row r="6" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="6" spans="1:5" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
-    </row>
-    <row r="7" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
-    </row>
-    <row r="8" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
-    </row>
-    <row r="10" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
@@ -3191,357 +3431,482 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
       <c r="B16" s="6">
-        <f t="shared" ref="B16:B38" si="0">20*($B$13-1)+1+A16</f>
-        <v>582</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="B16:B35" si="0">20*($B$13-1)+1+A16</f>
+        <v>42</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" ref="D16:D35" si="1">(5-C16)/5*100</f>
+        <v>80</v>
+      </c>
+      <c r="E16" s="6" t="str">
+        <f t="shared" ref="E16:E36" si="2">IF(D16&lt;21,"Dhoif",IF(D16&lt;41,"Maqbul",IF(D16&lt;61,"Jayyid",IF(D16&lt;81,"Jayyid Jiddan","Mumtaz"))))</f>
+        <v>Jayyid Jiddan</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <f t="shared" ref="A17:A38" si="1">A16+1</f>
+        <f t="shared" ref="A17:A35" si="3">A16+1</f>
         <v>2</v>
       </c>
       <c r="B17" s="6">
         <f t="shared" si="0"/>
-        <v>583</v>
-      </c>
-      <c r="C17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Mumtaz</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Jayyid Jiddan</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Jayyid Jiddan</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Jayyid Jiddan</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Maqbul</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Jayyid</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Maqbul</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B24" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Jayyid</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B25" s="6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Mumtaz</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B26" s="6">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E26" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Jayyid</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B27" s="6">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E27" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Mumtaz</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B28" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E28" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Mumtaz</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B29" s="6">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C29" s="6">
+        <v>3</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E29" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Maqbul</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B30" s="6">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E30" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Jayyid Jiddan</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B31" s="6">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C31" s="6">
+        <v>4</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B18" s="6">
-        <f t="shared" si="0"/>
-        <v>584</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="E31" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Dhoif</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B32" s="6">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E32" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Jayyid Jiddan</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B33" s="6">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E33" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Jayyid</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B34" s="6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E34" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Mumtaz</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B19" s="6">
-        <f t="shared" si="0"/>
-        <v>585</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B20" s="6">
-        <f t="shared" si="0"/>
-        <v>586</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B21" s="6">
-        <f t="shared" si="0"/>
-        <v>587</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B22" s="6">
-        <f t="shared" si="0"/>
-        <v>588</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <f t="shared" si="1"/>
+      <c r="B35" s="6">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2</v>
+      </c>
+      <c r="D35" s="8">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E35" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Jayyid</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="6">
-        <f t="shared" si="0"/>
-        <v>589</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <f t="shared" si="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="9">
+        <f>AVERAGE(D16:D35)</f>
+        <v>71</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Jayyid Jiddan</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="6">
-        <f t="shared" si="0"/>
-        <v>590</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B25" s="6">
-        <f t="shared" si="0"/>
-        <v>591</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B26" s="6">
-        <f t="shared" si="0"/>
-        <v>592</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B27" s="6">
-        <f t="shared" si="0"/>
-        <v>593</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B28" s="6">
-        <f t="shared" si="0"/>
-        <v>594</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B29" s="6">
-        <f t="shared" si="0"/>
-        <v>595</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B30" s="6">
-        <f t="shared" si="0"/>
-        <v>596</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B31" s="6">
-        <f t="shared" si="0"/>
-        <v>597</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B32" s="6">
-        <f t="shared" si="0"/>
-        <v>598</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B33" s="6">
-        <f t="shared" si="0"/>
-        <v>599</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B34" s="6">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B35" s="6">
-        <f t="shared" si="0"/>
-        <v>601</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B36" s="6">
-        <f t="shared" si="0"/>
-        <v>602</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B37" s="6">
-        <f t="shared" si="0"/>
-        <v>603</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B38" s="7">
-        <f t="shared" si="0"/>
-        <v>604</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+    </row>
+    <row r="39" spans="1:5" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A39:E39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3551,18 +3916,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500D9763-9D78-493D-87A3-9CD333538001}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155DC68B-27C4-438B-8540-B21F409481E0}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3596,7 +3961,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3612,7 +3977,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3643,7 +4008,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3656,7 +4021,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3669,7 +4034,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3682,7 +4047,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3695,7 +4060,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3708,7 +4073,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3721,7 +4086,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3734,7 +4099,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3760,7 +4125,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3773,7 +4138,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3786,7 +4151,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3799,7 +4164,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3812,7 +4177,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3838,7 +4203,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3851,7 +4216,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3864,7 +4229,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3890,7 +4255,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3899,7 +4264,7 @@
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3922,24 +4287,24 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="85" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B74BC1-2224-4F03-A32E-1A417E48A46E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B69B23C-F1B9-435A-820C-5B673DC29455}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C39"/>
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3973,7 +4338,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3989,7 +4354,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3997,7 +4362,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4017,10 +4382,10 @@
       </c>
       <c r="B16" s="6">
         <f t="shared" ref="B16:B35" si="0">20*($B$13-1)+1+A16</f>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4030,10 +4395,10 @@
       </c>
       <c r="B17" s="6">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4043,10 +4408,10 @@
       </c>
       <c r="B18" s="6">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4056,10 +4421,10 @@
       </c>
       <c r="B19" s="6">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4069,10 +4434,10 @@
       </c>
       <c r="B20" s="6">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4082,10 +4447,10 @@
       </c>
       <c r="B21" s="6">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4095,10 +4460,10 @@
       </c>
       <c r="B22" s="6">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4108,10 +4473,10 @@
       </c>
       <c r="B23" s="6">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4121,10 +4486,10 @@
       </c>
       <c r="B24" s="6">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4134,10 +4499,10 @@
       </c>
       <c r="B25" s="6">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4147,7 +4512,7 @@
       </c>
       <c r="B26" s="6">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>21</v>
@@ -4160,10 +4525,10 @@
       </c>
       <c r="B27" s="6">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4173,10 +4538,10 @@
       </c>
       <c r="B28" s="6">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4186,10 +4551,10 @@
       </c>
       <c r="B29" s="6">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4199,10 +4564,10 @@
       </c>
       <c r="B30" s="6">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4212,10 +4577,10 @@
       </c>
       <c r="B31" s="6">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4225,7 +4590,7 @@
       </c>
       <c r="B32" s="6">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>21</v>
@@ -4238,7 +4603,7 @@
       </c>
       <c r="B33" s="6">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>21</v>
@@ -4251,10 +4616,10 @@
       </c>
       <c r="B34" s="6">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4264,10 +4629,10 @@
       </c>
       <c r="B35" s="6">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4276,7 +4641,7 @@
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4299,7 +4664,761 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="85" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF75C6C-2DF1-422B-9F46-9B94848BAE94}">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="6" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="10" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" ref="B16:B35" si="0">20*($B$13-1)+1+A16</f>
+        <v>42</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <f t="shared" ref="A17:A35" si="1">A16+1</f>
+        <v>2</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B24" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B25" s="6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B26" s="6">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B27" s="6">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B28" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B29" s="6">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B30" s="6">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B31" s="6">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B32" s="6">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B33" s="6">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B34" s="6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B35" s="6">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A39:C39"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" scale="85" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F7B811-0515-4E65-9569-B2A7EFA0A783}">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="6" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="10" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" ref="B16:B35" si="0">20*($B$13-1)+1+A16</f>
+        <v>62</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <f t="shared" ref="A17:A35" si="1">A16+1</f>
+        <v>2</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B24" s="6">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B25" s="6">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B26" s="6">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B27" s="6">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B28" s="6">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B29" s="6">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B30" s="6">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B31" s="6">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B32" s="6">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B33" s="6">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B34" s="6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B35" s="6">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A39:C39"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" scale="85" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>